--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\www\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{56249D36-AAE5-40EE-9EFF-C7BBB6AA3080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B44B732-30FA-4794-BE4A-7372603D0764}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70E1B89A-134D-4AC9-8159-914E6AC12D6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
     <sheet name="table2" sheetId="1" r:id="rId2"/>
     <sheet name="table3" sheetId="2" r:id="rId3"/>
+    <sheet name="IBI_data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk51855215" localSheetId="1">table2!$D$2</definedName>
@@ -38,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Metric abbreviation</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>Trend</t>
   </si>
   <si>
@@ -236,6 +234,42 @@
   </si>
   <si>
     <t>Representing in the voltanism attirbute for an invertebrate.</t>
+  </si>
+  <si>
+    <t>Metric Description</t>
+  </si>
+  <si>
+    <t>Index Region</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>q25</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>q75</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>WH IBI Stress Sites</t>
+  </si>
+  <si>
+    <t>WH IBI Reference Sites</t>
+  </si>
+  <si>
+    <t>CH IBI Stress Sites</t>
+  </si>
+  <si>
+    <t>CH IBI Reference Sites</t>
   </si>
 </sst>
 </file>
@@ -589,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D70E99-7595-41AF-ADE9-AB988ED9D0C8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -602,109 +636,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +752,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,97 +771,97 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +875,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,97 +891,230 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D2">
+        <v>35.4</v>
+      </c>
+      <c r="E2">
+        <v>44.9</v>
+      </c>
+      <c r="F2">
+        <v>52.2</v>
+      </c>
+      <c r="G2">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D3">
+        <v>59.7</v>
+      </c>
+      <c r="E3">
+        <v>62.5</v>
+      </c>
+      <c r="F3">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G3">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>13.9</v>
+      </c>
+      <c r="D4">
+        <v>27.4</v>
+      </c>
+      <c r="E4">
+        <v>35.9</v>
+      </c>
+      <c r="F4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G4">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>35.9</v>
+      </c>
+      <c r="D5">
+        <v>64.7</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G5">
+        <v>90.6</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1390,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{D70B1028-931C-45CC-99B7-7283958F97ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70E1B89A-134D-4AC9-8159-914E6AC12D6C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{088F7167-CA59-4301-B662-C2A85F616A67}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
-    <sheet name="table2" sheetId="1" r:id="rId2"/>
-    <sheet name="table3" sheetId="2" r:id="rId3"/>
-    <sheet name="IBI_data" sheetId="4" r:id="rId4"/>
+    <sheet name="table3" sheetId="1" r:id="rId2"/>
+    <sheet name="table4" sheetId="2" r:id="rId3"/>
+    <sheet name="table5" sheetId="5" r:id="rId4"/>
+    <sheet name="IBI_data" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk51855215" localSheetId="1">table2!$D$2</definedName>
+    <definedName name="_Hlk51855215" localSheetId="1">table3!$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Metric abbreviation</t>
   </si>
@@ -221,12 +222,6 @@
     <t>This represents the count of individuals observed in the sample.</t>
   </si>
   <si>
-    <t>MassDEP_2019_Bugs</t>
-  </si>
-  <si>
-    <t>CENTRALHILLS, WESTHIGHLANDS, MULTIHAB</t>
-  </si>
-  <si>
     <t>LIFE_CYCLE</t>
   </si>
   <si>
@@ -260,16 +255,76 @@
     <t>Max</t>
   </si>
   <si>
-    <t>WH IBI Stress Sites</t>
-  </si>
-  <si>
-    <t>WH IBI Reference Sites</t>
-  </si>
-  <si>
-    <t>CH IBI Stress Sites</t>
-  </si>
-  <si>
-    <t>CH IBI Reference Sites</t>
+    <t>MassDEP_2020_Bugs</t>
+  </si>
+  <si>
+    <t>KickIBI_CH_300ct, KickIBI_WH_300ct, KickIBI_CH_100ct, KickIBI_WH_100ct, or LowGradientIBI</t>
+  </si>
+  <si>
+    <t>pi_OET</t>
+  </si>
+  <si>
+    <t>Percent individuals - Orders Odonata, Ephemeroptera, and Trichoptera</t>
+  </si>
+  <si>
+    <t>100*(metric value)/ 49</t>
+  </si>
+  <si>
+    <t>100*(metric value)/ 32</t>
+  </si>
+  <si>
+    <t>pt_NonIns</t>
+  </si>
+  <si>
+    <t>Percent taxa - not Class Insecta</t>
+  </si>
+  <si>
+    <t>100*(46 -metric value)/ 42</t>
+  </si>
+  <si>
+    <t>pt_POET</t>
+  </si>
+  <si>
+    <t>Percent taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
+  </si>
+  <si>
+    <t>100*(metric value)/ 40</t>
+  </si>
+  <si>
+    <t>pt_tv_toler</t>
+  </si>
+  <si>
+    <t>Percent tolerant taxa</t>
+  </si>
+  <si>
+    <t>100*(36 -metric value)/ 33</t>
+  </si>
+  <si>
+    <t>pt_volt_semi</t>
+  </si>
+  <si>
+    <t>Percent  taxa - semivoltine (SEMI)</t>
+  </si>
+  <si>
+    <t>100*(metric value)/ 12</t>
+  </si>
+  <si>
+    <t>Low Gradient IBI Stress Sites</t>
+  </si>
+  <si>
+    <t>Low Gradient IBI Reference Sites</t>
+  </si>
+  <si>
+    <t>WH IBI Stress Sites (300 ct)</t>
+  </si>
+  <si>
+    <t>WH IBI Reference Sites (300 ct)</t>
+  </si>
+  <si>
+    <t>CH IBI Stress Sites  (300 ct)</t>
+  </si>
+  <si>
+    <t>CH IBI Reference Sites  (300 ct)</t>
   </si>
 </sst>
 </file>
@@ -624,13 +679,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
     <col min="3" max="3" width="150.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,7 +705,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +713,7 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -732,13 +787,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -875,7 +930,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -990,44 +1045,163 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D898394-CCEC-4B06-A145-72A252D31EE7}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -1050,7 +1224,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -1073,7 +1247,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1096,7 +1270,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1115,6 +1289,52 @@
       </c>
       <c r="G5">
         <v>90.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>30.1</v>
+      </c>
+      <c r="E6">
+        <v>35.1</v>
+      </c>
+      <c r="F6">
+        <v>48.2</v>
+      </c>
+      <c r="G6">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>32.9</v>
+      </c>
+      <c r="D7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E7">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F7">
+        <v>80.7</v>
+      </c>
+      <c r="G7">
+        <v>91.3</v>
       </c>
     </row>
   </sheetData>
@@ -1123,6 +1343,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1131,7 +1357,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1354,13 +1580,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1368,7 +1605,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1385,21 +1622,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{088F7167-CA59-4301-B662-C2A85F616A67}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{413FB521-F664-45E4-A669-BA270C35EE74}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
-    <sheet name="table1" sheetId="3" r:id="rId1"/>
-    <sheet name="table3" sheetId="1" r:id="rId2"/>
-    <sheet name="table4" sheetId="2" r:id="rId3"/>
-    <sheet name="table5" sheetId="5" r:id="rId4"/>
+    <sheet name="Instr_table1" sheetId="3" r:id="rId1"/>
+    <sheet name="Back_table1" sheetId="1" r:id="rId2"/>
+    <sheet name="Back_table2" sheetId="2" r:id="rId3"/>
+    <sheet name="Back_table3" sheetId="5" r:id="rId4"/>
     <sheet name="IBI_data" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk51855215" localSheetId="1">table3!$D$2</definedName>
+    <definedName name="_Hlk51855215" localSheetId="1">Back_table1!$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,119 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
-  <si>
-    <t>Metric abbreviation</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Scoring formula</t>
   </si>
   <si>
-    <t>nt_total</t>
-  </si>
-  <si>
-    <t>Number of taxa - total</t>
-  </si>
-  <si>
-    <t>Dec.</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 38.8</t>
-  </si>
-  <si>
-    <t>pi_Pleco</t>
-  </si>
-  <si>
-    <t>Percent individuals - Order Plecoptera</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 18.3</t>
-  </si>
-  <si>
-    <t>pi_ffg_filt</t>
-  </si>
-  <si>
-    <t>Percent individuals - Functional Feeding Group (FFG) - collector-filterer (CF)</t>
-  </si>
-  <si>
-    <t>Inc.</t>
-  </si>
-  <si>
-    <t>100*(50.5-metric value)/ 40.7</t>
-  </si>
-  <si>
-    <t>pi_ffg_shred</t>
-  </si>
-  <si>
-    <t>Percent individuals - FFG - shredder (SH)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 23</t>
-  </si>
-  <si>
-    <t>pi_tv_intol</t>
-  </si>
-  <si>
-    <t>Percent individuals - tolerance value - intolerant ≤ 3</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 51.5</t>
-  </si>
-  <si>
-    <t>x_Becks</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 36.8</t>
-  </si>
-  <si>
-    <t>Becks Biotic Index*</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 34.9</t>
-  </si>
-  <si>
-    <t>pt_EPT</t>
-  </si>
-  <si>
-    <t>Percent taxa - Orders Ephemeroptera, Plecoptera &amp; Trichoptera (EPT)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 54.5</t>
-  </si>
-  <si>
-    <t>pi_Ephem NoCaeBae</t>
-  </si>
-  <si>
-    <t>Percent individuals - Order Ephemeroptera, excluding Families Caenidae and Baetidae</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 13.9</t>
-  </si>
-  <si>
-    <t>100*(79.9-metric value)/ 66.9</t>
-  </si>
-  <si>
-    <t>pt_ffg_pred</t>
-  </si>
-  <si>
-    <t>Percent taxa - Functional Feeding Group (FFG) - predator (PR)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 28.5</t>
-  </si>
-  <si>
-    <t>pt_tv_intol</t>
-  </si>
-  <si>
-    <t>Percent taxa - tolerance value - intolerant ≤ 3</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 39.1</t>
-  </si>
-  <si>
     <t>Input Column Name</t>
   </si>
   <si>
@@ -231,9 +123,6 @@
     <t>Representing in the voltanism attirbute for an invertebrate.</t>
   </si>
   <si>
-    <t>Metric Description</t>
-  </si>
-  <si>
     <t>Index Region</t>
   </si>
   <si>
@@ -261,54 +150,6 @@
     <t>KickIBI_CH_300ct, KickIBI_WH_300ct, KickIBI_CH_100ct, KickIBI_WH_100ct, or LowGradientIBI</t>
   </si>
   <si>
-    <t>pi_OET</t>
-  </si>
-  <si>
-    <t>Percent individuals - Orders Odonata, Ephemeroptera, and Trichoptera</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 49</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 32</t>
-  </si>
-  <si>
-    <t>pt_NonIns</t>
-  </si>
-  <si>
-    <t>Percent taxa - not Class Insecta</t>
-  </si>
-  <si>
-    <t>100*(46 -metric value)/ 42</t>
-  </si>
-  <si>
-    <t>pt_POET</t>
-  </si>
-  <si>
-    <t>Percent taxa - Orders Plecoptera, Odonata, Ephemeroptera, and Trichoptera (POET)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 40</t>
-  </si>
-  <si>
-    <t>pt_tv_toler</t>
-  </si>
-  <si>
-    <t>Percent tolerant taxa</t>
-  </si>
-  <si>
-    <t>100*(36 -metric value)/ 33</t>
-  </si>
-  <si>
-    <t>pt_volt_semi</t>
-  </si>
-  <si>
-    <t>Percent  taxa - semivoltine (SEMI)</t>
-  </si>
-  <si>
-    <t>100*(metric value)/ 12</t>
-  </si>
-  <si>
     <t>Low Gradient IBI Stress Sites</t>
   </si>
   <si>
@@ -325,13 +166,124 @@
   </si>
   <si>
     <t>CH IBI Reference Sites  (300 ct)</t>
+  </si>
+  <si>
+    <t>Metric (abbrev)</t>
+  </si>
+  <si>
+    <t>Response to stress</t>
+  </si>
+  <si>
+    <t>Number of total taxa (nt_total)</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>100*(metric)/38.8</t>
+  </si>
+  <si>
+    <t>% Plecoptera individuals (pi_Pleco)</t>
+  </si>
+  <si>
+    <t>100*(metric)/18.3</t>
+  </si>
+  <si>
+    <t>% Collector-filterer individuals (pi_ffg_filt)</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>100*(50.5-metric)/40.7</t>
+  </si>
+  <si>
+    <t>% Shredder individuals (pi_ffg_shred)</t>
+  </si>
+  <si>
+    <t>100*(metric)/23</t>
+  </si>
+  <si>
+    <t>% Intolerant individuals (pi_tv_intol)</t>
+  </si>
+  <si>
+    <t>100*(metric)/51.5</t>
+  </si>
+  <si>
+    <t>Becks Biotic Index (x_Becks)</t>
+  </si>
+  <si>
+    <t>100*(metric)/36.8</t>
+  </si>
+  <si>
+    <t>100*(metric)/34.9</t>
+  </si>
+  <si>
+    <t>% EPT taxa (pt_EPT)</t>
+  </si>
+  <si>
+    <t>100*(metric)/54.5</t>
+  </si>
+  <si>
+    <t>% Ephemeroptera individuals, excluding Caenidae and Baetidae (pi_Ephem NoCaeBae)</t>
+  </si>
+  <si>
+    <t>100*(metric)/13.9</t>
+  </si>
+  <si>
+    <t>100*(79.9-metric)/66.9</t>
+  </si>
+  <si>
+    <t>% Predator taxa (pt_ffg_pred)</t>
+  </si>
+  <si>
+    <t>100*(metric)/28.5</t>
+  </si>
+  <si>
+    <t>% Intolerant taxa (pt_tv_intol)</t>
+  </si>
+  <si>
+    <t>100*(metric)/39.1</t>
+  </si>
+  <si>
+    <t>% POET taxa (Plecoptera, Odonata, Ephemeroptera, and Trichoptera) (pt_POET)</t>
+  </si>
+  <si>
+    <t>100*(metric)/40</t>
+  </si>
+  <si>
+    <t>100*(metric)/32</t>
+  </si>
+  <si>
+    <t>% Non-insect taxa (pt_NonIns)</t>
+  </si>
+  <si>
+    <t>100*(46-metric)/42</t>
+  </si>
+  <si>
+    <t>% OET individuals (Odonata, Ephemeroptera, and Trichoptera) (pi_OET)</t>
+  </si>
+  <si>
+    <t>100*(metric)/49</t>
+  </si>
+  <si>
+    <t>% Tolerant taxa (pt_tv_toler)</t>
+  </si>
+  <si>
+    <t>100*(36-metric)/33</t>
+  </si>
+  <si>
+    <t>% Semivoltine taxa (pt_volt_semi)</t>
+  </si>
+  <si>
+    <t>100*(metric)/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,16 +291,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -356,12 +327,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,109 +695,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -804,119 +808,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F79B44-77D1-422F-8B96-8F5C8A5AA434}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -927,116 +910,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112405A5-00A8-4BCD-913C-E7DE6DFEE19C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1046,120 +1008,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D898394-CCEC-4B06-A145-72A252D31EE7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1178,30 +1120,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -1224,7 +1166,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -1247,7 +1189,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1270,7 +1212,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1293,7 +1235,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>41</v>
@@ -1316,7 +1258,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -1343,21 +1285,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1580,7 +1507,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
@@ -1597,29 +1558,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{413FB521-F664-45E4-A669-BA270C35EE74}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D87107F-5DC8-4186-8B3D-BE498BC12F18}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_table1" sheetId="3" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D898394-CCEC-4B06-A145-72A252D31EE7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,6 +1285,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1507,36 +1522,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1559,9 +1548,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D87107F-5DC8-4186-8B3D-BE498BC12F18}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C51A6EB4-9341-4225-AFDB-34F8580CD07E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_table1" sheetId="3" r:id="rId1"/>
-    <sheet name="Back_table1" sheetId="1" r:id="rId2"/>
-    <sheet name="Back_table2" sheetId="2" r:id="rId3"/>
-    <sheet name="Back_table3" sheetId="5" r:id="rId4"/>
-    <sheet name="IBI_data" sheetId="4" r:id="rId5"/>
+    <sheet name="Instr_table2" sheetId="6" r:id="rId2"/>
+    <sheet name="Back_table1" sheetId="1" r:id="rId3"/>
+    <sheet name="Back_table2" sheetId="2" r:id="rId4"/>
+    <sheet name="Back_table3" sheetId="5" r:id="rId5"/>
+    <sheet name="IBI_data" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk51855215" localSheetId="1">Back_table1!$D$2</definedName>
+    <definedName name="_Hlk51855215" localSheetId="2">Back_table1!$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
   <si>
     <t>Scoring formula</t>
   </si>
@@ -180,110 +181,414 @@
     <t>Decrease</t>
   </si>
   <si>
+    <t>% Plecoptera individuals (pi_Pleco)</t>
+  </si>
+  <si>
+    <t>100*(metric)/18.3</t>
+  </si>
+  <si>
+    <t>% Collector-filterer individuals (pi_ffg_filt)</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>100*(50.5-metric)/40.7</t>
+  </si>
+  <si>
+    <t>% Shredder individuals (pi_ffg_shred)</t>
+  </si>
+  <si>
+    <t>100*(metric)/23</t>
+  </si>
+  <si>
+    <t>% Intolerant individuals (pi_tv_intol)</t>
+  </si>
+  <si>
+    <t>100*(metric)/51.5</t>
+  </si>
+  <si>
+    <t>Becks Biotic Index (x_Becks)</t>
+  </si>
+  <si>
+    <t>100*(metric)/36.8</t>
+  </si>
+  <si>
+    <t>100*(metric)/34.9</t>
+  </si>
+  <si>
+    <t>% EPT taxa (pt_EPT)</t>
+  </si>
+  <si>
+    <t>100*(metric)/54.5</t>
+  </si>
+  <si>
+    <t>% Ephemeroptera individuals, excluding Caenidae and Baetidae (pi_Ephem NoCaeBae)</t>
+  </si>
+  <si>
+    <t>100*(metric)/13.9</t>
+  </si>
+  <si>
+    <t>100*(79.9-metric)/66.9</t>
+  </si>
+  <si>
+    <t>% Predator taxa (pt_ffg_pred)</t>
+  </si>
+  <si>
+    <t>100*(metric)/28.5</t>
+  </si>
+  <si>
+    <t>% Intolerant taxa (pt_tv_intol)</t>
+  </si>
+  <si>
+    <t>100*(metric)/39.1</t>
+  </si>
+  <si>
+    <t>% POET taxa (Plecoptera, Odonata, Ephemeroptera, and Trichoptera) (pt_POET)</t>
+  </si>
+  <si>
+    <t>100*(metric)/40</t>
+  </si>
+  <si>
+    <t>100*(metric)/32</t>
+  </si>
+  <si>
+    <t>% Non-insect taxa (pt_NonIns)</t>
+  </si>
+  <si>
+    <t>100*(46-metric)/42</t>
+  </si>
+  <si>
+    <t>% OET individuals (Odonata, Ephemeroptera, and Trichoptera) (pi_OET)</t>
+  </si>
+  <si>
+    <t>100*(metric)/49</t>
+  </si>
+  <si>
+    <t>% Tolerant taxa (pt_tv_toler)</t>
+  </si>
+  <si>
+    <t>100*(36-metric)/33</t>
+  </si>
+  <si>
+    <t>% Semivoltine taxa (pt_volt_semi)</t>
+  </si>
+  <si>
+    <t>100*(metric)/12</t>
+  </si>
+  <si>
+    <t>Required field (in CAPS)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Acceptable entries</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Entity_Year_Assemblage</t>
+  </si>
+  <si>
+    <t>One option: MassDEP_2020_Bugs</t>
+  </si>
+  <si>
+    <t>Must match 'Acceptable entries' options exactly</t>
+  </si>
+  <si>
+    <t>Specifies which IBI to apply to each sample</t>
+  </si>
+  <si>
+    <t>Three options (select one only): KickIBI_CH_100ct, KickIBI_WH_100ct, LowGradientIBI</t>
+  </si>
+  <si>
+    <t>Must match 'Acceptable entries' options exactly. CH = Central Hills, WH = Western Highlands</t>
+  </si>
+  <si>
+    <t>STATIONID</t>
+  </si>
+  <si>
+    <t>Unique station identifier</t>
+  </si>
+  <si>
+    <t>Letters and/or numbers. Example: B0950</t>
+  </si>
+  <si>
+    <t>Corresponds with UniqueID in the MassDEP database</t>
+  </si>
+  <si>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>Unique sample identifier</t>
+  </si>
+  <si>
+    <t>Letters and/or numbers. Example: 2017004</t>
+  </si>
+  <si>
+    <t>Corresponds with BenSampID in the MassDEP database</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Number, in decimal degrees. Example: 41.1864</t>
+  </si>
+  <si>
+    <t>NAD83 datum</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Number, in decimal degrees. Example: -73.3429</t>
+  </si>
+  <si>
+    <t>COLLDATE</t>
+  </si>
+  <si>
+    <t>Collection date</t>
+  </si>
+  <si>
+    <t>Preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
+  </si>
+  <si>
+    <t>Other date formats can be used but Month/Day/Year (4-digit) is recommended</t>
+  </si>
+  <si>
+    <t>COLLMETH</t>
+  </si>
+  <si>
+    <t>Collection method</t>
+  </si>
+  <si>
+    <t>Letters or numbers. Example: RBP kicknet</t>
+  </si>
+  <si>
+    <t>Normal MassDEP entries are 'RBP kicknet' or 'RBP multihab'</t>
+  </si>
+  <si>
+    <t>Unique taxa identifier</t>
+  </si>
+  <si>
+    <t>Letters or numbers. Example: Rhyacophila atrata</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The taxa list should match with the FinalID field in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaxaTranslator table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Taxa should be identified to the lowest practical taxonomic resolution. I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f not, results should be interpreted with caution</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant taxa (also referred to as non-distinct taxa) are excluded from richness metric calculations but are counted in the other metrics </t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (redundant taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criteria for designating redundant taxa should be consistent with the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExcludeDecisionCriteria document</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-target taxa are not part of the intended capture list (e.g., Hemiptera, Decapoda, terrestrial). They are excluded from all metric calculations</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (Non-target taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should match with the entries in the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taxa Attribute tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which are the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same in both the kick net and low gradient attribute tables.</t>
+    </r>
+  </si>
+  <si>
+    <t>PHYLUM</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
+  </si>
+  <si>
+    <t>Letters. If no entry, leave blank</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Insecta)</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Coleoptera)</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Elmidae)</t>
+  </si>
+  <si>
+    <t>SUBFAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Orthocladiinae)</t>
+  </si>
+  <si>
+    <t>TRIBE</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Chironomini)</t>
+  </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Rhyacophila)</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>0 (most intolerant) to 10 (most tolerant)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IMPORTANT - Tolerance values are slightly different in the kick net vs low gradient </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Taxa Attribute tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Make sure you use the appropriate tolerance values.</t>
+    </r>
+  </si>
+  <si>
+    <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>Number. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Five options (select one only): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Three options (select one only): UNI, SEMI, MULTI. If no attribute, leave blank</t>
+  </si>
+  <si>
     <t>100*(metric)/38.8</t>
-  </si>
-  <si>
-    <t>% Plecoptera individuals (pi_Pleco)</t>
-  </si>
-  <si>
-    <t>100*(metric)/18.3</t>
-  </si>
-  <si>
-    <t>% Collector-filterer individuals (pi_ffg_filt)</t>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>100*(50.5-metric)/40.7</t>
-  </si>
-  <si>
-    <t>% Shredder individuals (pi_ffg_shred)</t>
-  </si>
-  <si>
-    <t>100*(metric)/23</t>
-  </si>
-  <si>
-    <t>% Intolerant individuals (pi_tv_intol)</t>
-  </si>
-  <si>
-    <t>100*(metric)/51.5</t>
-  </si>
-  <si>
-    <t>Becks Biotic Index (x_Becks)</t>
-  </si>
-  <si>
-    <t>100*(metric)/36.8</t>
-  </si>
-  <si>
-    <t>100*(metric)/34.9</t>
-  </si>
-  <si>
-    <t>% EPT taxa (pt_EPT)</t>
-  </si>
-  <si>
-    <t>100*(metric)/54.5</t>
-  </si>
-  <si>
-    <t>% Ephemeroptera individuals, excluding Caenidae and Baetidae (pi_Ephem NoCaeBae)</t>
-  </si>
-  <si>
-    <t>100*(metric)/13.9</t>
-  </si>
-  <si>
-    <t>100*(79.9-metric)/66.9</t>
-  </si>
-  <si>
-    <t>% Predator taxa (pt_ffg_pred)</t>
-  </si>
-  <si>
-    <t>100*(metric)/28.5</t>
-  </si>
-  <si>
-    <t>% Intolerant taxa (pt_tv_intol)</t>
-  </si>
-  <si>
-    <t>100*(metric)/39.1</t>
-  </si>
-  <si>
-    <t>% POET taxa (Plecoptera, Odonata, Ephemeroptera, and Trichoptera) (pt_POET)</t>
-  </si>
-  <si>
-    <t>100*(metric)/40</t>
-  </si>
-  <si>
-    <t>100*(metric)/32</t>
-  </si>
-  <si>
-    <t>% Non-insect taxa (pt_NonIns)</t>
-  </si>
-  <si>
-    <t>100*(46-metric)/42</t>
-  </si>
-  <si>
-    <t>% OET individuals (Odonata, Ephemeroptera, and Trichoptera) (pi_OET)</t>
-  </si>
-  <si>
-    <t>100*(metric)/49</t>
-  </si>
-  <si>
-    <t>% Tolerant taxa (pt_tv_toler)</t>
-  </si>
-  <si>
-    <t>100*(36-metric)/33</t>
-  </si>
-  <si>
-    <t>% Semivoltine taxa (pt_volt_semi)</t>
-  </si>
-  <si>
-    <t>100*(metric)/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +609,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,6 +713,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,11 +1173,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE22BD3B-D2EE-4275-9DEC-771C881492AA}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="179.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F79B44-77D1-422F-8B96-8F5C8A5AA434}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,62 +1553,62 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112405A5-00A8-4BCD-913C-E7DE6DFEE19C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -943,62 +1652,62 @@
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D898394-CCEC-4B06-A145-72A252D31EE7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1035,68 +1744,68 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1105,11 +1814,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1285,21 +1994,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -1522,10 +2216,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1548,20 +2268,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C51A6EB4-9341-4225-AFDB-34F8580CD07E}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DE4212E-6257-4093-A91D-81F8FBFBC568}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_table1" sheetId="3" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>Unique station identifier</t>
   </si>
   <si>
-    <t>Letters and/or numbers. Example: B0950</t>
-  </si>
-  <si>
     <t>Corresponds with UniqueID in the MassDEP database</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Unique sample identifier</t>
   </si>
   <si>
-    <t>Letters and/or numbers. Example: 2017004</t>
-  </si>
-  <si>
     <t>Corresponds with BenSampID in the MassDEP database</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Number, in decimal degrees. Example: 41.1864</t>
-  </si>
-  <si>
     <t>NAD83 datum</t>
   </si>
   <si>
@@ -349,18 +340,12 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Number, in decimal degrees. Example: -73.3429</t>
-  </si>
-  <si>
     <t>COLLDATE</t>
   </si>
   <si>
     <t>Collection date</t>
   </si>
   <si>
-    <t>Preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
-  </si>
-  <si>
     <t>Other date formats can be used but Month/Day/Year (4-digit) is recommended</t>
   </si>
   <si>
@@ -370,31 +355,145 @@
     <t>Collection method</t>
   </si>
   <si>
-    <t>Letters or numbers. Example: RBP kicknet</t>
-  </si>
-  <si>
     <t>Normal MassDEP entries are 'RBP kicknet' or 'RBP multihab'</t>
   </si>
   <si>
     <t>Unique taxa identifier</t>
   </si>
   <si>
-    <t>Letters or numbers. Example: Rhyacophila atrata</t>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant taxa (also referred to as non-distinct taxa) are excluded from richness metric calculations but are counted in the other metrics </t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (redundant taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <t>Non-target taxa are not part of the intended capture list (e.g., Hemiptera, Decapoda, terrestrial). They are excluded from all metric calculations</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (Non-target taxa should be entered as "TRUE"). No blanks</t>
+  </si>
+  <si>
+    <t>PHYLUM</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Insecta)</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Coleoptera)</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Elmidae)</t>
+  </si>
+  <si>
+    <t>SUBFAMILY</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Orthocladiinae)</t>
+  </si>
+  <si>
+    <t>TRIBE</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Chironomini)</t>
+  </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>Taxonomic hierarchy (e.g., Rhyacophila)</t>
+  </si>
+  <si>
+    <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
+  </si>
+  <si>
+    <t>Three options (select one only): UNI, SEMI, MULTI. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>100*(metric)/38.8</t>
+  </si>
+  <si>
+    <t>The taxa list should match with the FinalID field in the [TaxaTranslator table](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep). Taxa should be identified to the lowest practical taxonomic resolution. If not, results should be interpreted with caution</t>
+  </si>
+  <si>
+    <t>Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Should match with the entries in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep), which are the same in both the kick net and low gradient attribute tables.</t>
+  </si>
+  <si>
+    <t>IMPORTANT - Tolerance values are slightly different in the kick net vs low gradient [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep). Make sure you use the appropriate tolerance values.</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text; If no entry, leave blank</t>
+  </si>
+  <si>
+    <t>Five options (can select multiple): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Numeric; If no attribute, leave blank</t>
+  </si>
+  <si>
+    <t>Text; Example: B0950</t>
+  </si>
+  <si>
+    <t>Text; Example: 2017004</t>
+  </si>
+  <si>
+    <t>Numeric; in decimal degrees. Example: 41.1864</t>
+  </si>
+  <si>
+    <t>Numeric; in decimal degrees. Example: -73.3429</t>
+  </si>
+  <si>
+    <t>Date; preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
+  </si>
+  <si>
+    <t>Text; Example: RBP kicknet</t>
+  </si>
+  <si>
+    <t>Text; Example: Rhyacophila atrata</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The taxa list should match with the FinalID field in the </t>
+      <t>Values range from 0 (most </t>
     </r>
     <r>
       <rPr>
-        <u/>
+        <i/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TaxaTranslator table</t>
+      <t>intolerant</t>
     </r>
     <r>
       <rPr>
@@ -404,78 +503,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Taxa should be identified to the lowest practical taxonomic resolution. I</t>
+      <t>) to 10 (most </t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>f not, results should be interpreted with caution</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of individuals</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundant taxa (also referred to as non-distinct taxa) are excluded from richness metric calculations but are counted in the other metrics </t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (redundant taxa should be entered as "TRUE"). No blanks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Criteria for designating redundant taxa should be consistent with the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ExcludeDecisionCriteria document</t>
-    </r>
-  </si>
-  <si>
-    <t>Non-target taxa are not part of the intended capture list (e.g., Hemiptera, Decapoda, terrestrial). They are excluded from all metric calculations</t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (Non-target taxa should be entered as "TRUE"). No blanks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Should match with the entries in the </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Taxa Attribute tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, which are the </t>
+      <t>tolerant</t>
     </r>
     <r>
       <rPr>
@@ -485,110 +524,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>same in both the kick net and low gradient attribute tables.</t>
+      <t>). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
     </r>
-  </si>
-  <si>
-    <t>PHYLUM</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
-  </si>
-  <si>
-    <t>Letters. If no entry, leave blank</t>
-  </si>
-  <si>
-    <t>CLASS</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Insecta)</t>
-  </si>
-  <si>
-    <t>ORDER</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Coleoptera)</t>
-  </si>
-  <si>
-    <t>FAMILY</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Elmidae)</t>
-  </si>
-  <si>
-    <t>SUBFAMILY</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Orthocladiinae)</t>
-  </si>
-  <si>
-    <t>TRIBE</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Chironomini)</t>
-  </si>
-  <si>
-    <t>GENUS</t>
-  </si>
-  <si>
-    <t>Taxonomic hierarchy (e.g., Rhyacophila)</t>
-  </si>
-  <si>
-    <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
-  </si>
-  <si>
-    <t>TOLVAL</t>
-  </si>
-  <si>
-    <t>0 (most intolerant) to 10 (most tolerant)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IMPORTANT - Tolerance values are slightly different in the kick net vs low gradient </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Taxa Attribute tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Make sure you use the appropriate tolerance values.</t>
-    </r>
-  </si>
-  <si>
-    <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
-  </si>
-  <si>
-    <t>Number. If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>Five options (select one only): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>Three options (select one only): UNI, SEMI, MULTI. If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>100*(metric)/38.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,23 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,6 +662,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE22BD3B-D2EE-4275-9DEC-771C881492AA}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,80 +1169,80 @@
         <v>89</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,13 +1250,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,13 +1278,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,111 +1292,111 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,27 +1404,27 @@
         <v>12</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,17 +1432,18 @@
         <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1519,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F79B44-77D1-422F-8B96-8F5C8A5AA434}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1553,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1994,6 +1926,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -2216,36 +2163,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
-    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2268,9 +2189,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
+    <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
+++ b/inst/shiny-examples/MassIBItools/Extras/tables/Instruction_Tables.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben.Block\OneDrive - Tetra Tech, Inc\GitHub\MassIBItools\inst\shiny-examples\MassIBItools\Extras\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7DE4212E-6257-4093-A91D-81F8FBFBC568}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="6_{FCDEF830-16B4-406E-A93E-DA0A90D83908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A0B6C60F-C8E0-4F65-AA9B-2552FDC7CD19}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
+    <workbookView xWindow="28680" yWindow="2460" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{3B3719AA-49C9-406B-B2F9-D3A39525E496}"/>
   </bookViews>
   <sheets>
     <sheet name="Instr_table1" sheetId="3" r:id="rId1"/>
-    <sheet name="Instr_table2" sheetId="6" r:id="rId2"/>
+    <sheet name="Instr_table2" sheetId="7" r:id="rId2"/>
     <sheet name="Back_table1" sheetId="1" r:id="rId3"/>
-    <sheet name="Back_table2" sheetId="2" r:id="rId4"/>
-    <sheet name="Back_table3" sheetId="5" r:id="rId5"/>
-    <sheet name="IBI_data" sheetId="4" r:id="rId6"/>
+    <sheet name="Back_table2" sheetId="8" r:id="rId4"/>
+    <sheet name="Back_table3" sheetId="2" r:id="rId5"/>
+    <sheet name="Back_table4" sheetId="9" r:id="rId6"/>
+    <sheet name="Back_table5" sheetId="5" r:id="rId7"/>
+    <sheet name="IBI_data" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk51855215" localSheetId="2">Back_table1!$D$2</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
   <si>
     <t>Scoring formula</t>
   </si>
@@ -157,18 +159,6 @@
     <t>Low Gradient IBI Reference Sites</t>
   </si>
   <si>
-    <t>WH IBI Stress Sites (300 ct)</t>
-  </si>
-  <si>
-    <t>WH IBI Reference Sites (300 ct)</t>
-  </si>
-  <si>
-    <t>CH IBI Stress Sites  (300 ct)</t>
-  </si>
-  <si>
-    <t>CH IBI Reference Sites  (300 ct)</t>
-  </si>
-  <si>
     <t>Metric (abbrev)</t>
   </si>
   <si>
@@ -277,262 +267,176 @@
     <t>100*(metric)/12</t>
   </si>
   <si>
-    <t>Required field (in CAPS)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Acceptable entries</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Entity_Year_Assemblage</t>
-  </si>
-  <si>
-    <t>One option: MassDEP_2020_Bugs</t>
-  </si>
-  <si>
-    <t>Must match 'Acceptable entries' options exactly</t>
-  </si>
-  <si>
-    <t>Specifies which IBI to apply to each sample</t>
-  </si>
-  <si>
-    <t>Three options (select one only): KickIBI_CH_100ct, KickIBI_WH_100ct, LowGradientIBI</t>
-  </si>
-  <si>
-    <t>Must match 'Acceptable entries' options exactly. CH = Central Hills, WH = Western Highlands</t>
-  </si>
-  <si>
     <t>STATIONID</t>
   </si>
   <si>
-    <t>Unique station identifier</t>
-  </si>
-  <si>
-    <t>Corresponds with UniqueID in the MassDEP database</t>
-  </si>
-  <si>
     <t>SAMPLEID</t>
   </si>
   <si>
-    <t>Unique sample identifier</t>
-  </si>
-  <si>
-    <t>Corresponds with BenSampID in the MassDEP database</t>
-  </si>
-  <si>
     <t>LAT</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
     <t>NAD83 datum</t>
   </si>
   <si>
     <t>LONG</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>COLLDATE</t>
   </si>
   <si>
-    <t>Collection date</t>
-  </si>
-  <si>
-    <t>Other date formats can be used but Month/Day/Year (4-digit) is recommended</t>
-  </si>
-  <si>
     <t>COLLMETH</t>
   </si>
   <si>
-    <t>Collection method</t>
-  </si>
-  <si>
-    <t>Normal MassDEP entries are 'RBP kicknet' or 'RBP multihab'</t>
-  </si>
-  <si>
-    <t>Unique taxa identifier</t>
-  </si>
-  <si>
-    <t>Number of individuals</t>
-  </si>
-  <si>
-    <t>In some cases, random subsampling may be necessary during the data preparation step (e.g., reducing a 300-count kick sample to 100 organisms before applying a 100-count kickIBI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundant taxa (also referred to as non-distinct taxa) are excluded from richness metric calculations but are counted in the other metrics </t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (redundant taxa should be entered as "TRUE"). No blanks</t>
-  </si>
-  <si>
-    <t>Non-target taxa are not part of the intended capture list (e.g., Hemiptera, Decapoda, terrestrial). They are excluded from all metric calculations</t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (Non-target taxa should be entered as "TRUE"). No blanks</t>
-  </si>
-  <si>
     <t>PHYLUM</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Arthropoda)</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Insecta)</t>
-  </si>
-  <si>
     <t>ORDER</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Coleoptera)</t>
-  </si>
-  <si>
     <t>FAMILY</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Elmidae)</t>
-  </si>
-  <si>
     <t>SUBFAMILY</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Orthocladiinae)</t>
-  </si>
-  <si>
     <t>TRIBE</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Chironomini)</t>
-  </si>
-  <si>
     <t>GENUS</t>
   </si>
   <si>
-    <t>Taxonomic hierarchy (e.g., Rhyacophila)</t>
-  </si>
-  <si>
-    <t>Functional Feeding Group: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), shredder (SH)</t>
-  </si>
-  <si>
     <t>TOLVAL</t>
   </si>
   <si>
-    <t>univoltine (UNI), semivoltine (SEMI), multivoltine (MULTI)</t>
-  </si>
-  <si>
-    <t>Three options (select one only): UNI, SEMI, MULTI. If no attribute, leave blank</t>
-  </si>
-  <si>
     <t>100*(metric)/38.8</t>
   </si>
   <si>
-    <t>The taxa list should match with the FinalID field in the [TaxaTranslator table](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep). Taxa should be identified to the lowest practical taxonomic resolution. If not, results should be interpreted with caution</t>
-  </si>
-  <si>
-    <t>Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
-  </si>
-  <si>
-    <t>Should match with the entries in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep), which are the same in both the kick net and low gradient attribute tables.</t>
-  </si>
-  <si>
-    <t>IMPORTANT - Tolerance values are slightly different in the kick net vs low gradient [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep). Make sure you use the appropriate tolerance values.</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Text; If no entry, leave blank</t>
-  </si>
-  <si>
-    <t>Five options (can select multiple): CG, CF, PR, SC, SH. If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>Numeric; If no attribute, leave blank</t>
-  </si>
-  <si>
-    <t>Text; Example: B0950</t>
-  </si>
-  <si>
-    <t>Text; Example: 2017004</t>
-  </si>
-  <si>
-    <t>Numeric; in decimal degrees. Example: 41.1864</t>
-  </si>
-  <si>
-    <t>Numeric; in decimal degrees. Example: -73.3429</t>
-  </si>
-  <si>
-    <t>Date; preferred format is Month/Day/Year (4-digit). Example: 8/10/2015</t>
-  </si>
-  <si>
-    <t>Text; Example: RBP kicknet</t>
-  </si>
-  <si>
-    <t>Text; Example: Rhyacophila atrata</t>
-  </si>
-  <si>
-    <r>
-      <t>Values range from 0 (most </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>intolerant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) to 10 (most </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tolerant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). Intolerant taxa 0 to 3. Tolerant taxa 7 to 10</t>
-    </r>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Domain (allowable entries)</t>
+  </si>
+  <si>
+    <t>Null Allowed</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>KickIBI_CH_100ct, KickIBI_CH_300ct, KickIBI_WH_100ct, KickIBI_WH_300ct, LowGradientIBI</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>real number, in decimal degrees</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>non-negative real number</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>CG, CF, PR, SC, SH (select one)</t>
+  </si>
+  <si>
+    <t>number ranging from 0-10</t>
+  </si>
+  <si>
+    <t>uni, semi, multi (select one)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Only one allowable entry (MassDEP_2020_Bugs).</t>
+  </si>
+  <si>
+    <t>Must match one of the five allowable entries (which tells the R code which IBI to apply to each sample).</t>
+  </si>
+  <si>
+    <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAD83 datum. Longitude values in North America (west of the prime meridian) should be negative . </t>
+  </si>
+  <si>
+    <t>Date on which the sample was collected.</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of organisms in each sample. See [TaxaTranslator table](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Number of individuals.</t>
+  </si>
+  <si>
+    <t>Redundant (non-distinct) taxa should marked "TRUE". Criteria for designating redundant taxa should be consistent with the [ExcludeDecisionCriteria document](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Non-target taxa should be marked "TRUE". Designations should match with those in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>This entry affects the non-insect metric calculation for the low gradient IBI. Insect/non-insect designations should match with those in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Several IBI metrics are based on Order (e.g., % EPT taxa). Entries should be consistent with the phylogeny in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>The '% Ephemeroptera, excluding Caenidae and Baetidae' metric (from the CH kick net IBIs) is partly based on Family. Entries should be consistent with the phylogeny in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Primary Functional Feeding Group. One entry only: collector-gatherer (CG), collector-filterer (CF), predator (PR), scraper (SC), or shredder (SH). At least one FFG metric is in each IBI. FFG trait assignments should match with those in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>Taxa with tolerance values ranging from 0 to 3 are considered 'intolerant' to anthropogenic disturbance and are included in the 'intolerant' metric calculations. Those with values ranging from 7 to 10 are included in the 'tolerant' metrics. Tolerance value assignments are slightly different in low gradient vs high gradient (kick net method) streams, and should match with those in the appropriate [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep). Make sure you use the appropriate tolerance values. Use TaxaAttribute_MULTI for multihabitat IBI and TaxaAttribute_KICK for Kick IBIs.</t>
+  </si>
+  <si>
+    <t>Number of broods or generations of an organism in a year (also referred to as 'voltinism'): univoltine (UNI), semivoltine (SEMI), or multivoltine (MULTI). One metric (% semivoltine taxa in the low gradient IBI) is based on life cycle. Trait assignments should match with those in the [Taxa Attribute tables](https://github.com/Blocktt/MassIBItools/tree/master/Data_Prep).</t>
+  </si>
+  <si>
+    <t>WH IBI Stress Sites (100 ct)</t>
+  </si>
+  <si>
+    <t>WH IBI Reference Sites (100 ct)</t>
+  </si>
+  <si>
+    <t>CH IBI Stress Sites  (100 ct)</t>
+  </si>
+  <si>
+    <t>CH IBI Reference Sites  (100 ct)</t>
+  </si>
+  <si>
+    <t>100*(metric)/61.8</t>
+  </si>
+  <si>
+    <t>100*(metric)/50.6</t>
+  </si>
+  <si>
+    <t>100*(metric)/55.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,25 +460,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -592,7 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,25 +538,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,346 +1000,373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE22BD3B-D2EE-4275-9DEC-771C881492AA}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BED7F8-6A18-4B77-B0A1-78564995A0AB}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="179.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="E23" t="s">
         <v>121</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1452,7 +1375,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1468,10 +1391,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1479,68 +1402,68 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1550,6 +1473,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44FC853-1290-4798-9AD2-7DAC249BEDB4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112405A5-00A8-4BCD-913C-E7DE6DFEE19C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1567,10 +1587,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1578,68 +1598,68 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1667,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA20B00-07E8-4D34-B881-9083602CC00B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D898394-CCEC-4B06-A145-72A252D31EE7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1665,10 +1782,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1676,68 +1793,68 @@
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1746,12 +1863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCB74C7-B0F8-4255-A473-2B9690E3C853}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1901,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -1807,7 +1924,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -1830,7 +1947,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -1853,7 +1970,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1926,21 +2043,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8722535354FE44D894D41349A7B291C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58de43979792481ad7e727883399823e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f184d54a-0942-4fe6-a117-6eb5ddd114d9" xmlns:ns4="ee0f1bd9-88a9-4065-9041-4ab71245ad05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1e4bc53e1ae157333121df11b709d15" ns3:_="" ns4:_="">
     <xsd:import namespace="f184d54a-0942-4fe6-a117-6eb5ddd114d9"/>
@@ -2163,15 +2271,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD18DA69-7EC7-4262-B3E6-9A14BFB313F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ee0f1bd9-88a9-4065-9041-4ab71245ad05"/>
@@ -2188,7 +2297,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D646D6-E8B4-4CD3-833D-B00928112B04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2205,4 +2314,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E0F61B-E5F7-4E18-B122-367D9E9A27FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>